--- a/数据整理/stocks/A股/深证主板/000733-振华科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/000733-振华科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6988,7 +6989,6 @@
           <t>交银稳健配置混合H</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
           <t>84.34</t>
@@ -7004,6 +7004,3478 @@
       </c>
       <c r="H108" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>199.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.2641</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>142.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.4019</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3429</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.9798</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.2331</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.0185</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>59.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.9166</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>65.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>48.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.9113</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2587</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>45.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.1435</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0908</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9392</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>58.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.8009</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6488</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>31.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6448</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>57.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6325</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4413</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>26.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3971</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2445</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0830</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9550</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8772</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8610</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7546</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7104</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6444</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5613</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5378</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.93</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5112</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5068</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5060</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4515</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4356</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519698</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>交银先锋混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4241</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3883</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3392</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3387</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3328</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3136</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2865</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2573</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2560</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2206</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1657</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>76.95</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>66.53</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>48.68</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>54.40</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>66.27</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000733-振华科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/000733-振华科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10481,4 +10482,5756 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H151"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>259.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18.4795</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>171.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>16.8050</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.4766</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>142.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.7548</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.6901</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.0414</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>60.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.2381</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>58.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.1677</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>69.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.0350</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.7494</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>73.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>47.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.6832</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>50.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.5680</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.2773</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>58.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.1473</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.8373</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>64.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.6902</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>45.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.6046</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>54.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.5637</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.3973</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.3616</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>47.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.2252</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.7986</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.5690</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3988</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.3727</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2868</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>27.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.1888</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.1669</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>27.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.1622</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.1147</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.0854</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>43.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.0721</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.0115</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.0105</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.9674</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.9030</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8882</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>19.84</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7797</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>49.13</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7713</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7647</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7523</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>24.48</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.7442</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.7021</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6651</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6312</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6078</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>47.54</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5782</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5750</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5189</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5087</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4907</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4250</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4116</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519698</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>交银先锋混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>77.51</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4112</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3905</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3699</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3614</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3532</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2890</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2858</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2679</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2514</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2442</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2283</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1801</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>71.28</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>59.78</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>55.07</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>54.69</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>48.62</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>71.85</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008757</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008758</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>008869</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>大成恒享混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011548</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>九泰久慧混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>71.85</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>48.62</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>008870</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>大成恒享混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>011549</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>九泰久慧混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000733-振华科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/000733-振华科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16234,4 +16235,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
+      </c>
+      <c r="D2" t="n">
+        <v>143.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>90</v>
+      </c>
+      <c r="D3" t="n">
+        <v>79.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>107</v>
+      </c>
+      <c r="D4" t="n">
+        <v>62.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>63</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000733-振华科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/000733-振华科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16243,7 +16244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16254,17 +16255,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -16274,14 +16295,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="n">
-        <v>143.4</v>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>287.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20.9602</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -16290,14 +16333,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>90</v>
-      </c>
-      <c r="D3" t="n">
-        <v>79.11</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>200.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>18.9891</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -16306,14 +16371,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>107</v>
-      </c>
-      <c r="D4" t="n">
-        <v>62.54</v>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.3423</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -16322,13 +16409,8469 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.8737</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>58.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.7967</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.0961</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.9984</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>125.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.9872</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>63.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.9325</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.5115</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>58.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.0844</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.0687</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>55.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>4.0630</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>118.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4.0334</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>545.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.3817</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.0300</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>37.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.9275</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>54.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.7334</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>45.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.6448</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>47.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.6393</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.6187</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.2845</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>78.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2.1686</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>48.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2.1177</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.9915</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.8526</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.5980</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.5018</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.4003</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>55.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.3920</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012130</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.3389</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.3114</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.1858</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.1735</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.0674</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.0484</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>22.65</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.0102</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.9538</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.9266</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.8452</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>15.91</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.50</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.8289</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.8276</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.8233</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>19.98</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.7413</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.7386</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>70.31</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.7048</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.6366</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>48.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>69.67</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.6227</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.6101</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5890</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>41.44</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5651</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5584</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5090</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4823</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4716</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519698</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>交银先锋混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4667</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4538</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4508</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4409</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4296</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.4135</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.4039</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.4014</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3926</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>60.13</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3728</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3481</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3310</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2931</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2784</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2654</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2503</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2421</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2399</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2337</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2288</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>16.64</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>34.71</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2118</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001416</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>嘉实事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>15.25</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1865</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>56.89</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>012131</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>69.67</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>011548</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>九泰久慧混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>34.09</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>004144</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>上投摩根安丰回报混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>43.51</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>008758</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>008757</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>41.44</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>004852</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>广发价值回报混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>004145</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>上投摩根安丰回报混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>69.45</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>004806</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>长信先机两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>011549</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>九泰久慧混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>34.09</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>004853</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>广发价值回报混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>43.51</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>005405</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>005406</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>223</v>
+      </c>
+      <c r="D2" t="n">
+        <v>174.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>150</v>
+      </c>
+      <c r="D3" t="n">
+        <v>143.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>90</v>
+      </c>
+      <c r="D4" t="n">
+        <v>79.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>107</v>
+      </c>
+      <c r="D5" t="n">
+        <v>62.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>63</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>38.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000733-振华科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/000733-振华科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -35843,7 +35844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35854,17 +35855,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -35874,14 +35895,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>290</v>
-      </c>
-      <c r="D2" t="n">
-        <v>194.09</v>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>235.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.8578</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -35890,14 +35933,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>223</v>
-      </c>
-      <c r="D3" t="n">
-        <v>174.17</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>179.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>17.5085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -35906,14 +35971,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>150</v>
-      </c>
-      <c r="D4" t="n">
-        <v>143.4</v>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.9174</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -35922,14 +36009,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>90</v>
-      </c>
-      <c r="D5" t="n">
-        <v>79.11</v>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.3520</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -35938,14 +36047,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>107</v>
-      </c>
-      <c r="D6" t="n">
-        <v>62.54</v>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>118.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.4807</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -35954,13 +36085,9483 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>57.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.3827</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>47.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.7255</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.6187</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>45.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.5310</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>51.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.5223</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>53.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.0394</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.8833</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>46.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.5441</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.3969</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>48.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.3617</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>106.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>67.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.0203</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.9801</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>46.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.5563</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>40.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.5259</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>55.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.5194</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>53.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.4135</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.4039</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2.2467</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2.1897</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2.0497</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>63.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2.0214</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>44.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.9774</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.8578</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.8177</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.7869</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.7783</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013910</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.7395</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.6552</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>32.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.5413</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.4660</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.4381</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.4375</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>19.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.4160</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.3021</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010357</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>60.43</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1.2992</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012130</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1.2247</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1.1800</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000527</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>53.42</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1.1432</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>15.47</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1.1262</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1.1234</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1.1002</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1.0846</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.9520</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.9330</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.9016</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.8974</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>34.59</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.8890</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.8859</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>17.63</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.8357</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.7866</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>27.11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.7835</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>15.16</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.7413</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.7038</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001053</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方创新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>31.80</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.6837</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.6503</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.6319</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>27.35</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.6181</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.6109</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.6097</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.6086</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013911</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>27.44</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.6037</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>64.51</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.5769</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011592</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时军工主题股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.5639</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013883</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.5229</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012314</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方行业领先混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.5080</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.5064</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.4934</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.4732</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.4491</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.4429</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.4424</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.4402</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>519698</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>交银先锋混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.4362</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.4332</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011949</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.4248</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.4061</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.4049</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012816</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.4023</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.3917</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.3843</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.3841</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.3552</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.3503</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008979</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>万家民丰回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.3432</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012800</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.3210</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.3115</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013091</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.3066</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012041</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.3056</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.2979</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.2973</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.2968</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>501064</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>国泰价值优选灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.2968</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001416</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉实事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.2471</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.2442</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.2419</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>014963</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>交银先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.2223</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014096</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>63.85</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.2062</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010358</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1851</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008264</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005742</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>南方成安优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>160624</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>鹏华消费领先混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>013618</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>014807</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>013949</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010534</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>30.23</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>44.43</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>013566</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>014606</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>招商高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>013899</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>012131</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>75.25</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>014135</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>013035</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>富国中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>009048</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新优选三年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>002134</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>015046</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>006590</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>南方新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>013950</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>交银先锋混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>008265</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>011712</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>014996</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>013092</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>014995</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>009955</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>012817</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>014849</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>建信健康民生混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>014136</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>014808</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>015007</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>013479</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>015006</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合A</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>013900</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>010535</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合C</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>44.43</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>014381</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>014162</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>万家人工智能混合C</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>40.14</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H242" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>015077</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>40.14</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H247" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G249" t="n">
+        <v>0</v>
+      </c>
+      <c r="H249" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>016209</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
+      <c r="H250" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>015057</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合C</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G251" t="n">
+        <v>0</v>
+      </c>
+      <c r="H251" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>015599</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>251</v>
+      </c>
+      <c r="D2" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>290</v>
+      </c>
+      <c r="D3" t="n">
+        <v>194.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>223</v>
+      </c>
+      <c r="D4" t="n">
+        <v>174.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>150</v>
+      </c>
+      <c r="D5" t="n">
+        <v>143.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>90</v>
+      </c>
+      <c r="D6" t="n">
+        <v>79.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>107</v>
+      </c>
+      <c r="D7" t="n">
+        <v>62.54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>63</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>38.41</v>
       </c>
     </row>
